--- a/report_template/inventory.xlsx
+++ b/report_template/inventory.xlsx
@@ -8,38 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\tights\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45551C-2D8E-458C-9F33-EE203D5847D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6FA4B-5C28-4B07-A9B3-81B394F27E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="5475" windowWidth="22575" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="110.05.06" sheetId="5" r:id="rId1"/>
+    <sheet name="工作表" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'110.05.06'!$A$1:$L$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'110.05.06'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
-  <si>
-    <t>NO.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>COL</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -53,18 +37,17 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>DATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
+    <t>C.Z.庫存報表</t>
+  </si>
+  <si>
+    <t>2021/10/28</t>
+  </si>
+  <si>
+    <t>Customer NO.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory NO.</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -72,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="26">
     <font>
       <sz val="12"/>
@@ -252,9 +238,10 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <b/>
+      <sz val="20"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -376,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -492,7 +479,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -510,7 +497,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -522,10 +509,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -537,10 +524,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -553,9 +540,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -693,34 +715,55 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1076,92 +1119,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="14.625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="10.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.125" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+    <row r="1" spans="1:15" ht="39.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="30.95" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="30.95" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="O3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="27.95" customHeight="1" thickTop="1"/>
-    <row r="5" spans="1:12" ht="27.95" customHeight="1"/>
+    <row r="4" spans="1:15" ht="28.5" thickTop="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.59055118110236227" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" copies="5" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" copies="5" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"標楷體,標準"TO：魏太太、JOCELYN、陳課長、蕭惠真、詹永文/陳麗靖×2&amp;R&amp;"華康楷書體W7(P),標準"
 第&amp;P頁  共&amp;N頁</oddHeader>

--- a/report_template/inventory.xlsx
+++ b/report_template/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\tights\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\tights\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6FA4B-5C28-4B07-A9B3-81B394F27E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FC4ADF-1230-46D1-8D4D-6E152C45D42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="5475" windowWidth="22575" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>COL</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -363,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -525,21 +525,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
@@ -715,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -735,7 +720,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,22 +729,19 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1120,55 +1102,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="22" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="5" customWidth="1"/>
-    <col min="12" max="13" width="10.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="14.6328125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.08984375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="39.75" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="30.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="31" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1199,42 +1172,22 @@
       <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" ht="28.5" thickTop="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+    <row r="4" spans="1:10" ht="28" thickTop="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
